--- a/data/Sub_littoral_mud.xlsx
+++ b/data/Sub_littoral_mud.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\Development\R\meso-tool\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BDC91-1201-487B-B090-A393FFE23B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="14355" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestScenario" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Map_P_BA" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Map_BA_OP" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Map_OP_ES" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Legend" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="TestScenario" sheetId="1" r:id="rId1"/>
+    <sheet name="Map_P_BA" sheetId="2" r:id="rId2"/>
+    <sheet name="Map_BA_OP" sheetId="3" r:id="rId3"/>
+    <sheet name="Map_OP_ES" sheetId="4" r:id="rId4"/>
+    <sheet name="Legend" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -24,363 +29,342 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="109">
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment To Mixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment to Coarse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial Or Hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penetrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wave exp change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SusSed change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contamination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species Removal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silt Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silt Heavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth = 0, conf=1, layer=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guidance Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tube builders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burrow polys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burrow holothurians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pred poly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burrow Crusts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bivalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Infauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile epi pred scav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ophiuroids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holothurians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachd epi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter all inputs in this section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=INS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid using hyphens or special characters wherever possible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistance weights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insensitive =  -0.01 =INS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High resistance =  -0.2 = HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium resistance = -0.75 = MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low resistance =  -0.95 = LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No resistance =  -0.999 = NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBI scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensitive  I = -0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fairly sensitive II = -0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not so much really III = -0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Couldn't care less IV = -0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter all internal nodes in this section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal nodes shall also appear in the column headings as well.  Important to keep the same name (i.e. use copy and paste)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO NOT enter output parameters under column heading, they will be ignored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter all link nodes in this section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No input paras need to be entered for link nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are input nodes which will also appear as an output, without additional processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bioturbation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodeposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitat provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All input names should be the same as output names from the previous sheet (i.e. column names)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid using hyphens or special characters wherever possible.  R will replace them with full stops.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burrow Holothurians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"the more the merrier"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=1  = full noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0 = don't bother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale of 0 - 1 contnuously</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="108">
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Sediment To Mixed</t>
+  </si>
+  <si>
+    <t>Sediment to Coarse</t>
+  </si>
+  <si>
+    <t>Artificial Or Hard</t>
+  </si>
+  <si>
+    <t>Extract</t>
+  </si>
+  <si>
+    <t>Abrade</t>
+  </si>
+  <si>
+    <t>Penetrate</t>
+  </si>
+  <si>
+    <t>Wave exp change</t>
+  </si>
+  <si>
+    <t>SusSed change</t>
+  </si>
+  <si>
+    <t>Contamination</t>
+  </si>
+  <si>
+    <t>Species Removal</t>
+  </si>
+  <si>
+    <t>Silt Light</t>
+  </si>
+  <si>
+    <t>Silt Heavy</t>
+  </si>
+  <si>
+    <t>growth = 0, conf=1, layer=1</t>
+  </si>
+  <si>
+    <t>Guidance Notes</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Node Type</t>
+  </si>
+  <si>
+    <t>Tube builders</t>
+  </si>
+  <si>
+    <t>Burrow polys</t>
+  </si>
+  <si>
+    <t>Pred poly</t>
+  </si>
+  <si>
+    <t>Burrow Crusts</t>
+  </si>
+  <si>
+    <t>Bivalves</t>
+  </si>
+  <si>
+    <t>Other Infauna</t>
+  </si>
+  <si>
+    <t>Mobile epi pred scav</t>
+  </si>
+  <si>
+    <t>Echin</t>
+  </si>
+  <si>
+    <t>Attachd epi</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=2</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=3</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=4</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=5</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=6</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=7</t>
+  </si>
+  <si>
+    <t>Enter all inputs in this section</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>imp=INS</t>
+  </si>
+  <si>
+    <t>Avoid using hyphens or special characters wherever possible.</t>
+  </si>
+  <si>
+    <t>imp=NR</t>
+  </si>
+  <si>
+    <t>imp=LR</t>
+  </si>
+  <si>
+    <t>imp=HR</t>
+  </si>
+  <si>
+    <t>Resistance weights</t>
+  </si>
+  <si>
+    <t>Insensitive =  -0.01 =INS</t>
+  </si>
+  <si>
+    <t>High resistance =  -0.2 = HR</t>
+  </si>
+  <si>
+    <t>imp=MR</t>
+  </si>
+  <si>
+    <t>Medium resistance = -0.75 = MR</t>
+  </si>
+  <si>
+    <t>Low resistance =  -0.95 = LR</t>
+  </si>
+  <si>
+    <t>No resistance =  -0.999 = NR</t>
+  </si>
+  <si>
+    <t>AMBI scores</t>
+  </si>
+  <si>
+    <t>imp=IV</t>
+  </si>
+  <si>
+    <t>Sensitive  I = -0.2</t>
+  </si>
+  <si>
+    <t>Fairly sensitive II = -0.5</t>
+  </si>
+  <si>
+    <t>Not so much really III = -0.75</t>
+  </si>
+  <si>
+    <t>Couldn't care less IV = -0.95</t>
+  </si>
+  <si>
+    <t>Enter all internal nodes in this section</t>
+  </si>
+  <si>
+    <t>Internal nodes shall also appear in the column headings as well.  Important to keep the same name (i.e. use copy and paste)</t>
+  </si>
+  <si>
+    <t>DO NOT enter output parameters under column heading, they will be ignored</t>
+  </si>
+  <si>
+    <t>Link nodes</t>
+  </si>
+  <si>
+    <t>Enter all link nodes in this section</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>No input paras need to be entered for link nodes</t>
+  </si>
+  <si>
+    <t>Are input nodes which will also appear as an output, without additional processing</t>
+  </si>
+  <si>
+    <t>Bioturbation</t>
+  </si>
+  <si>
+    <t>Biodeposition</t>
+  </si>
+  <si>
+    <t>Secondary production</t>
+  </si>
+  <si>
+    <t>Habitat provision</t>
+  </si>
+  <si>
+    <t>Input Nodes</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=8</t>
+  </si>
+  <si>
+    <t>imp=0.75</t>
+  </si>
+  <si>
+    <t>imp=0.5</t>
+  </si>
+  <si>
+    <t>All input names should be the same as output names from the previous sheet (i.e. column names)</t>
+  </si>
+  <si>
+    <t>Avoid using hyphens or special characters wherever possible.  R will replace them with full stops.</t>
+  </si>
+  <si>
+    <t>imp=0.25</t>
+  </si>
+  <si>
+    <t>"the more the merrier"</t>
+  </si>
+  <si>
+    <t>imp=1  = full noise</t>
+  </si>
+  <si>
+    <t>imp=0 = don't bother</t>
+  </si>
+  <si>
+    <t>scale of 0 - 1 contnuously</t>
   </si>
   <si>
     <t xml:space="preserve">imp=0.5 </t>
   </si>
   <si>
-    <t xml:space="preserve">Internal Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment stability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrient cycling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Flows atten (CICES 5.2.1.1/2.2.1.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of Baseline Flows (CICES 2.2.1.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediation of Wastes (CICES 2.2.1.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nursery pop habitat (CICES 2.2.2.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild animals (CICES 1.1.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon sequestrn (CICES 2.2.6.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=-0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tube Builders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burrowing soft bodied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burrowing crust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bivalves other infauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echinoderms and attached epifauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output processes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecosystem function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecosystem services</t>
+    <t>Internal Nodes</t>
+  </si>
+  <si>
+    <t>Sediment stability</t>
+  </si>
+  <si>
+    <t>Nutrient cycling</t>
+  </si>
+  <si>
+    <t>Food resources</t>
+  </si>
+  <si>
+    <t>Mass Flows atten (CICES 5.2.1.1/2.2.1.2)</t>
+  </si>
+  <si>
+    <t>Regulation of Baseline Flows (CICES 2.2.1.1)</t>
+  </si>
+  <si>
+    <t>Mediation of Wastes (CICES 2.2.1.2)</t>
+  </si>
+  <si>
+    <t>Nursery pop habitat (CICES 2.2.2.3)</t>
+  </si>
+  <si>
+    <t>Wild animals (CICES 1.1.6)</t>
+  </si>
+  <si>
+    <t>Carbon sequestrn (CICES 2.2.6.1)</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=9</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=10</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=11</t>
+  </si>
+  <si>
+    <t>imp=-0.95</t>
+  </si>
+  <si>
+    <t>imp=0.95</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>imp=1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Pressures</t>
+  </si>
+  <si>
+    <t>Tube Builders</t>
+  </si>
+  <si>
+    <t>Burrowing soft bodied</t>
+  </si>
+  <si>
+    <t>Burrowing crust</t>
+  </si>
+  <si>
+    <t>Bivalves other infauna</t>
+  </si>
+  <si>
+    <t>echinoderms and attached epifauna</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
+  <si>
+    <t>Functional Groups</t>
+  </si>
+  <si>
+    <t>Output processes</t>
+  </si>
+  <si>
+    <t>Ecosystem function</t>
+  </si>
+  <si>
+    <t>Ecosystem services</t>
+  </si>
+  <si>
+    <t>Ophiuroids</t>
+  </si>
+  <si>
+    <t>Holothurians</t>
+  </si>
+  <si>
+    <t>Burrow holothurians</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -390,7 +374,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -514,346 +498,296 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="59">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCD5B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -867,7 +801,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCD5B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -881,7 +836,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -895,14 +871,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -916,88 +899,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCD5B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCD5B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1056,39 +963,347 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="F1 B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.67"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" customWidth="1"/>
+    <col min="14" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>13</v>
@@ -1168,8 +1383,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
@@ -1185,13 +1400,13 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="7"/>
@@ -1204,13 +1419,13 @@
       <c r="L4" s="8"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="7"/>
@@ -1223,13 +1438,13 @@
       <c r="L5" s="8"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="7"/>
@@ -1242,19 +1457,19 @@
       <c r="L6" s="8"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7"/>
@@ -1263,19 +1478,19 @@
       <c r="L7" s="8"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7"/>
@@ -1284,21 +1499,21 @@
       <c r="L8" s="8"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7"/>
@@ -1307,21 +1522,21 @@
       <c r="L9" s="8"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="7">
         <v>1</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7"/>
@@ -1330,21 +1545,21 @@
       <c r="L10" s="8"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="7">
         <v>1</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7"/>
@@ -1353,21 +1568,21 @@
       <c r="L11" s="8"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7"/>
@@ -1376,21 +1591,21 @@
       <c r="L12" s="8"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="7" t="n">
+      <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7"/>
@@ -1399,21 +1614,21 @@
       <c r="L13" s="8"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7" t="n">
+      <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="7" t="n">
+      <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7"/>
@@ -1422,8 +1637,8 @@
       <c r="L14" s="8"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="6"/>
@@ -1432,7 +1647,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7" t="n">
+      <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="7"/>
@@ -1441,8 +1656,8 @@
       <c r="L15" s="8"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="6"/>
@@ -1451,7 +1666,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7" t="n">
+      <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7"/>
@@ -1460,8 +1675,8 @@
       <c r="L16" s="8"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="6"/>
@@ -1470,7 +1685,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7" t="n">
+      <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7"/>
@@ -1479,8 +1694,8 @@
       <c r="L17" s="8"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="6"/>
@@ -1489,7 +1704,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7" t="n">
+      <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="7"/>
@@ -1498,8 +1713,8 @@
       <c r="L18" s="8"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="6"/>
@@ -1508,7 +1723,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7" t="n">
+      <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7"/>
@@ -1517,8 +1732,8 @@
       <c r="L19" s="8"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" s="6"/>
@@ -1527,7 +1742,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7" t="n">
+      <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7"/>
@@ -1536,8 +1751,8 @@
       <c r="L20" s="8"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" s="6"/>
@@ -1546,7 +1761,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7" t="n">
+      <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="7"/>
@@ -1555,8 +1770,8 @@
       <c r="L21" s="8"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" s="6"/>
@@ -1572,8 +1787,8 @@
       <c r="L22" s="8"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="6"/>
@@ -1589,8 +1804,8 @@
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="6"/>
@@ -1606,8 +1821,8 @@
       <c r="L24" s="8"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="6"/>
@@ -1623,8 +1838,8 @@
       <c r="L25" s="8"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" s="6"/>
@@ -1640,8 +1855,8 @@
       <c r="L26" s="8"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="6"/>
@@ -1657,8 +1872,8 @@
       <c r="L27" s="8"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" s="6"/>
@@ -1674,8 +1889,8 @@
       <c r="L28" s="8"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" s="6"/>
@@ -1691,8 +1906,8 @@
       <c r="L29" s="8"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" s="6"/>
@@ -1708,8 +1923,8 @@
       <c r="L30" s="8"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" s="6"/>
@@ -1725,8 +1940,8 @@
       <c r="L31" s="8"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" s="6"/>
@@ -1742,8 +1957,8 @@
       <c r="L32" s="8"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
       <c r="B33" s="6"/>
@@ -1759,8 +1974,8 @@
       <c r="L33" s="8"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
       <c r="B34" s="6"/>
@@ -1776,8 +1991,8 @@
       <c r="L34" s="8"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
       <c r="B35" s="6"/>
@@ -1793,8 +2008,8 @@
       <c r="L35" s="8"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
       <c r="B36" s="6"/>
@@ -1810,8 +2025,8 @@
       <c r="L36" s="8"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
       <c r="B37" s="6"/>
@@ -1827,8 +2042,8 @@
       <c r="L37" s="8"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" s="6"/>
@@ -1844,8 +2059,8 @@
       <c r="L38" s="8"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
       <c r="B39" s="6"/>
@@ -1861,8 +2076,8 @@
       <c r="L39" s="8"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
       <c r="B40" s="6"/>
@@ -1878,8 +2093,8 @@
       <c r="L40" s="8"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
       <c r="B41" s="6"/>
@@ -1895,8 +2110,8 @@
       <c r="L41" s="8"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>40</v>
       </c>
       <c r="B42" s="6"/>
@@ -1912,8 +2127,8 @@
       <c r="L42" s="8"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>41</v>
       </c>
       <c r="B43" s="6"/>
@@ -1929,8 +2144,8 @@
       <c r="L43" s="8"/>
       <c r="M43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>42</v>
       </c>
       <c r="B44" s="6"/>
@@ -1946,8 +2161,8 @@
       <c r="L44" s="8"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>43</v>
       </c>
       <c r="B45" s="6"/>
@@ -1963,8 +2178,8 @@
       <c r="L45" s="8"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>44</v>
       </c>
       <c r="B46" s="6"/>
@@ -1980,8 +2195,8 @@
       <c r="L46" s="8"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>45</v>
       </c>
       <c r="B47" s="6"/>
@@ -1997,8 +2212,8 @@
       <c r="L47" s="8"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>46</v>
       </c>
       <c r="B48" s="6"/>
@@ -2015,10 +2230,9 @@
       <c r="M48" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2026,33 +2240,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="59.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="16.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="18" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="8.83"/>
+    <col min="1" max="1" width="59.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" customWidth="1"/>
+    <col min="12" max="15" width="21.28515625" customWidth="1"/>
+    <col min="16" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="1018" width="8.7109375" customWidth="1"/>
+    <col min="1019" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -2069,627 +2279,627 @@
         <v>18</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
     </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="J2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="M2" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>39</v>
-      </c>
       <c r="E4" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>39</v>
-      </c>
       <c r="E5" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
     </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
     </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
     </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
     </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
     </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P12" s="24"/>
       <c r="Q12" s="24"/>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>39</v>
-      </c>
       <c r="L13" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
     </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="18"/>
@@ -2708,14 +2918,14 @@
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
     </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P15" s="32"/>
       <c r="Q15" s="32"/>
     </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
@@ -2734,9 +2944,9 @@
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2753,9 +2963,9 @@
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2772,9 +2982,9 @@
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2791,7 +3001,7 @@
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -2808,7 +3018,7 @@
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -2825,7 +3035,7 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -2842,9 +3052,9 @@
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -2861,15 +3071,15 @@
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -2884,15 +3094,15 @@
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -2907,9 +3117,9 @@
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -2926,7 +3136,7 @@
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -2943,7 +3153,7 @@
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -2959,7 +3169,7 @@
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -2975,7 +3185,7 @@
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -2991,7 +3201,7 @@
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -3007,7 +3217,7 @@
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -3023,7 +3233,7 @@
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
     </row>
-    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -3039,7 +3249,7 @@
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
     </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -3055,7 +3265,7 @@
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
     </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -3071,7 +3281,7 @@
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -3087,7 +3297,7 @@
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
     </row>
-    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -3103,7 +3313,7 @@
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
     </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -3119,7 +3329,7 @@
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
     </row>
-    <row r="39" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -3135,7 +3345,7 @@
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
     </row>
-    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
@@ -3151,7 +3361,7 @@
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
     </row>
-    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -3168,7 +3378,7 @@
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
     </row>
-    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -3185,7 +3395,7 @@
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
     </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -3204,114 +3414,113 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D14:O14">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>LEN(TRIM(D14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:O14">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"VH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:O14">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"H"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:O14">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:O14">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:O14">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:O14">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"VL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:O8">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>LEN(TRIM(D7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:O8">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"VH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:O8">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"H"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:O8">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:O8">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:O8">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:O8">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"VL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:O4 D13:O13 D9:O9">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:O4 D13:O13 D9:O9">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>"VH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:O4 D13:O13 D9:O9">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>"H"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:O4 D13:O13 D9:O9">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:O4 D13:O13 D9:O9">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:O4 D13:O13 D9:O9">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:O4 D13:O13 D9:O9">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>"VL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3319,28 +3528,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="F1 B24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="8" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="8.83"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="1019" width="8.7109375" customWidth="1"/>
+    <col min="1020" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="35" t="s">
@@ -3350,264 +3556,264 @@
         <v>16</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="36" t="s">
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" s="9" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
       <c r="D2" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>70</v>
-      </c>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>74</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G6" s="42"/>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>70</v>
-      </c>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>74</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="17" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="17" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G14" s="42"/>
     </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="43"/>
       <c r="C15" s="21"/>
@@ -3616,7 +3822,7 @@
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
     </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="43"/>
       <c r="C16" s="21"/>
@@ -3625,7 +3831,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="43"/>
       <c r="C17" s="21"/>
@@ -3634,9 +3840,9 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -3645,7 +3851,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -3654,7 +3860,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -3662,9 +3868,9 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -3672,92 +3878,92 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -3766,7 +3972,7 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
     </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -3775,7 +3981,7 @@
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -3784,7 +3990,7 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -3793,7 +3999,7 @@
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -3802,7 +4008,7 @@
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -3811,7 +4017,7 @@
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -3820,7 +4026,7 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3829,7 +4035,7 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -3838,7 +4044,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -3848,10 +4054,9 @@
       <c r="G37" s="21"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3859,36 +4064,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5464" ySplit="0" topLeftCell="E1" activePane="topRight" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q24" activeCellId="1" sqref="F1 Q24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6150" topLeftCell="E1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3899,103 +4100,103 @@
         <v>16</v>
       </c>
       <c r="D1" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="I1" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="J1" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="K1" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="L1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L2" s="52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
       <c r="G3" s="51" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
       <c r="K3" s="51"/>
       <c r="L3" s="53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="51" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="21"/>
@@ -4003,70 +4204,70 @@
       <c r="K4" s="21"/>
       <c r="L4" s="24"/>
     </row>
-    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
       <c r="I5" s="54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -4074,16 +4275,16 @@
       <c r="K7" s="21"/>
       <c r="L7" s="24"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
@@ -4091,17 +4292,17 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L8" s="24"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -4110,17 +4311,17 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L9" s="24"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -4129,17 +4330,17 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -4148,17 +4349,17 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L11" s="24"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -4167,11 +4368,11 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L12" s="24"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -4185,9 +4386,9 @@
       <c r="K13" s="21"/>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -4199,62 +4400,62 @@
       <c r="K14" s="21"/>
       <c r="L14" s="24"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="H15" s="21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="55"/>
     </row>
-    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -4266,10 +4467,10 @@
       <c r="K17" s="21"/>
       <c r="L17" s="24"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L18" s="24"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -4283,9 +4484,9 @@
       <c r="K19" s="21"/>
       <c r="L19" s="24"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -4299,9 +4500,9 @@
       <c r="K20" s="21"/>
       <c r="L20" s="24"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -4315,9 +4516,9 @@
       <c r="K21" s="21"/>
       <c r="L21" s="24"/>
     </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -4331,7 +4532,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -4345,7 +4546,7 @@
       <c r="K23" s="21"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -4359,7 +4560,7 @@
       <c r="K24" s="21"/>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -4373,7 +4574,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -4387,7 +4588,7 @@
       <c r="K26" s="21"/>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -4401,7 +4602,7 @@
       <c r="K27" s="21"/>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -4415,7 +4616,7 @@
       <c r="K28" s="21"/>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -4424,10 +4625,9 @@
       <c r="F29" s="18"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4435,92 +4635,88 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="F1 G16"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="56" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="57" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Sub_littoral_mud.xlsx
+++ b/data/Sub_littoral_mud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\Development\R\meso-tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BDC91-1201-487B-B090-A393FFE23B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B26013-2E95-42E7-B044-875169074B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="14355" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="109">
   <si>
     <t>Time</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Burrow holothurians</t>
+  </si>
+  <si>
+    <t>Echinoids</t>
   </si>
 </sst>
 </file>
@@ -2244,10 +2247,10 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2303,7 +2306,7 @@
         <v>106</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>25</v>

--- a/data/Sub_littoral_mud.xlsx
+++ b/data/Sub_littoral_mud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\Development\R\meso-tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B26013-2E95-42E7-B044-875169074B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BDC91-1201-487B-B090-A393FFE23B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="14355" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="108">
   <si>
     <t>Time</t>
   </si>
@@ -353,9 +353,6 @@
   </si>
   <si>
     <t>Burrow holothurians</t>
-  </si>
-  <si>
-    <t>Echinoids</t>
   </si>
 </sst>
 </file>
@@ -2247,10 +2244,10 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2306,7 +2303,7 @@
         <v>106</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>25</v>

--- a/data/Sub_littoral_mud.xlsx
+++ b/data/Sub_littoral_mud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\Development\R\meso-tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BDC91-1201-487B-B090-A393FFE23B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB265140-CD1C-4F80-8AF9-EAEDC606D592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="14355" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>Mobile epi pred scav</t>
   </si>
   <si>
-    <t>Echin</t>
-  </si>
-  <si>
     <t>Attachd epi</t>
   </si>
   <si>
@@ -353,6 +350,9 @@
   </si>
   <si>
     <t>Burrow holothurians</t>
+  </si>
+  <si>
+    <t>Echinoids</t>
   </si>
 </sst>
 </file>
@@ -2244,10 +2244,10 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2279,7 +2279,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>19</v>
@@ -2297,16 +2297,16 @@
         <v>23</v>
       </c>
       <c r="L1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>106</v>
-      </c>
       <c r="N1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
@@ -2318,236 +2318,236 @@
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="21" t="s">
-        <v>31</v>
-      </c>
       <c r="M2" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>34</v>
-      </c>
       <c r="E3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="G4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="H4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="K4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="M4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>37</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
@@ -2555,49 +2555,49 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
@@ -2605,301 +2605,301 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="26" t="s">
-        <v>38</v>
-      </c>
       <c r="N12" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P12" s="24"/>
       <c r="Q12" s="24"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>38</v>
-      </c>
       <c r="I13" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="23" t="s">
-        <v>37</v>
-      </c>
       <c r="M13" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="23" t="s">
         <v>36</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>37</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="18"/>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" s="32"/>
       <c r="Q15" s="32"/>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="18" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="19" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -3096,13 +3096,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="26" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -3556,95 +3556,95 @@
         <v>16</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="36" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
       <c r="D2" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>67</v>
-      </c>
       <c r="F3" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>70</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="42"/>
     </row>
@@ -3654,162 +3654,162 @@
         <v>19</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="17" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="42"/>
     </row>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -3880,13 +3880,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -3895,13 +3895,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -3914,7 +3914,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -3927,7 +3927,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -3935,13 +3935,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -3949,13 +3949,13 @@
     </row>
     <row r="27" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -4100,65 +4100,65 @@
         <v>16</v>
       </c>
       <c r="D1" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="F1" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="J1" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="L1" s="50" t="s">
         <v>84</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="H2" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="I2" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="J2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="52" t="s">
         <v>87</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4167,36 +4167,36 @@
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
       <c r="G3" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
       <c r="K3" s="51"/>
       <c r="L3" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="21"/>
@@ -4206,25 +4206,25 @@
     </row>
     <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="54" t="s">
         <v>89</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>90</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
       <c r="I5" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
@@ -4232,23 +4232,23 @@
     </row>
     <row r="6" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -4257,17 +4257,17 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -4278,13 +4278,13 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
@@ -4292,7 +4292,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="24"/>
     </row>
@@ -4302,7 +4302,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -4311,7 +4311,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" s="24"/>
     </row>
@@ -4321,7 +4321,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -4330,7 +4330,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L10" s="24"/>
     </row>
@@ -4340,7 +4340,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -4349,17 +4349,17 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="17" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -4368,7 +4368,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="24"/>
     </row>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -4402,19 +4402,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="H15" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -4423,39 +4423,39 @@
     </row>
     <row r="16" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="22" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -4650,32 +4650,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -4685,32 +4685,32 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
